--- a/output/3Y_P2_KFSDIV.xlsx
+++ b/output/3Y_P2_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.7888</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-23</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.244199999999999</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-22</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9413</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-21</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9801</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-20</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.6477</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-19</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.568899999999999</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-18</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.429399999999999</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-17</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.603999999999999</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.3595</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.0875</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.1692</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0872</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0976</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>10.8505</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-10</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>11.8576</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-9</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.5699</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-8</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.5994</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-7</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.6663</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-6</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.701</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-5</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8109</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.9322</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.5846</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.2867</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.0645</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8083</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.5636</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.1788</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.5668</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.962</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.2659</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.4103</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.3976</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9013</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.3527</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.8804</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6268</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3636</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.7888</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-23</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.244199999999999</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-22</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9413</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-21</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9801</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-20</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.6477</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-19</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.568899999999999</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-18</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.429399999999999</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-17</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.603999999999999</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.3595</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.0875</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.1692</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0872</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0976</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>10.8505</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-10</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>11.8576</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-9</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.5699</v>
@@ -3733,10 +3736,10 @@
         <v>200049.3299</v>
       </c>
       <c r="K17" s="1">
-        <v>118922.0124</v>
+        <v>118934.0317</v>
       </c>
       <c r="L17" s="1">
-        <v>9.382099999999999</v>
+        <v>9.382999999999999</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-8</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.5994</v>
@@ -3786,10 +3789,10 @@
         <v>223149.1204</v>
       </c>
       <c r="K18" s="1">
-        <v>119915.0011</v>
+        <v>119927.0203</v>
       </c>
       <c r="L18" s="1">
-        <v>9.401899999999999</v>
+        <v>9.402900000000001</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-7</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.6663</v>
@@ -3839,10 +3842,10 @@
         <v>252225.8132</v>
       </c>
       <c r="K19" s="1">
-        <v>116798.8045</v>
+        <v>116823.2642</v>
       </c>
       <c r="L19" s="1">
-        <v>9.3248</v>
+        <v>9.3268</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-6</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.701</v>
@@ -3892,10 +3895,10 @@
         <v>262651.3102</v>
       </c>
       <c r="K20" s="1">
-        <v>113448.1578</v>
+        <v>113486.0013</v>
       </c>
       <c r="L20" s="1">
-        <v>9.225199999999999</v>
+        <v>9.228300000000001</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-5</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8109</v>
@@ -3945,10 +3948,10 @@
         <v>261109.2195</v>
       </c>
       <c r="K21" s="1">
-        <v>123061.0982</v>
+        <v>123098.9416</v>
       </c>
       <c r="L21" s="1">
-        <v>9.502599999999999</v>
+        <v>9.505599999999999</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.9322</v>
@@ -3998,10 +4001,10 @@
         <v>284433.8631</v>
       </c>
       <c r="K22" s="1">
-        <v>144651.0264</v>
+        <v>144688.8698</v>
       </c>
       <c r="L22" s="1">
-        <v>9.9688</v>
+        <v>9.971500000000001</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.5846</v>
@@ -4051,10 +4054,10 @@
         <v>274088.4283</v>
       </c>
       <c r="K23" s="1">
-        <v>152928.3638</v>
+        <v>152966.2073</v>
       </c>
       <c r="L23" s="1">
-        <v>10.1255</v>
+        <v>10.128</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.2867</v>
@@ -4104,10 +4107,10 @@
         <v>278759.0541</v>
       </c>
       <c r="K24" s="1">
-        <v>183362.3546</v>
+        <v>183400.1981</v>
       </c>
       <c r="L24" s="1">
-        <v>10.4678</v>
+        <v>10.47</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.0645</v>
@@ -4157,10 +4160,10 @@
         <v>311141.6231</v>
       </c>
       <c r="K25" s="1">
-        <v>198631.1064</v>
+        <v>198668.9499</v>
       </c>
       <c r="L25" s="1">
-        <v>10.5897</v>
+        <v>10.5917</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8083</v>
@@ -4210,10 +4213,10 @@
         <v>334805.2628</v>
       </c>
       <c r="K26" s="1">
-        <v>194051.7652</v>
+        <v>194107.904</v>
       </c>
       <c r="L26" s="1">
-        <v>10.5422</v>
+        <v>10.5452</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.5636</v>
@@ -4263,10 +4266,10 @@
         <v>340375.154</v>
       </c>
       <c r="K27" s="1">
-        <v>190373.4238</v>
+        <v>190444.2643</v>
       </c>
       <c r="L27" s="1">
-        <v>10.4939</v>
+        <v>10.4978</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.1788</v>
@@ -4316,10 +4319,10 @@
         <v>351103.3257</v>
       </c>
       <c r="K28" s="1">
-        <v>204861.4172</v>
+        <v>204932.2577</v>
       </c>
       <c r="L28" s="1">
-        <v>10.6658</v>
+        <v>10.6695</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.5668</v>
@@ -4369,10 +4372,10 @@
         <v>389471.7958</v>
       </c>
       <c r="K29" s="1">
-        <v>222308.7137</v>
+        <v>222379.5542</v>
       </c>
       <c r="L29" s="1">
-        <v>10.8292</v>
+        <v>10.8327</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.962</v>
@@ -4422,10 +4425,10 @@
         <v>387846.298</v>
       </c>
       <c r="K30" s="1">
-        <v>203796.5398</v>
+        <v>203941.3224</v>
       </c>
       <c r="L30" s="1">
-        <v>10.5812</v>
+        <v>10.5887</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.2659</v>
@@ -4475,10 +4478,10 @@
         <v>371197.7639</v>
       </c>
       <c r="K31" s="1">
-        <v>225508.7935</v>
+        <v>225653.5762</v>
       </c>
       <c r="L31" s="1">
-        <v>10.8354</v>
+        <v>10.8423</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.4103</v>
@@ -4528,10 +4531,10 @@
         <v>384547.8105</v>
       </c>
       <c r="K32" s="1">
-        <v>270919.1046</v>
+        <v>271063.8872</v>
       </c>
       <c r="L32" s="1">
-        <v>11.0548</v>
+        <v>11.0607</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.3976</v>
@@ -4581,10 +4584,10 @@
         <v>394203.9821</v>
       </c>
       <c r="K33" s="1">
-        <v>277413.6024</v>
+        <v>277558.3851</v>
       </c>
       <c r="L33" s="1">
-        <v>11.0836</v>
+        <v>11.0894</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9013</v>
@@ -4634,10 +4637,10 @@
         <v>428427.213</v>
       </c>
       <c r="K34" s="1">
-        <v>287772.8363</v>
+        <v>287917.619</v>
       </c>
       <c r="L34" s="1">
-        <v>11.1267</v>
+        <v>11.1323</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.3527</v>
@@ -4687,10 +4690,10 @@
         <v>449973.5608</v>
       </c>
       <c r="K35" s="1">
-        <v>284759.362</v>
+        <v>284916.1965</v>
       </c>
       <c r="L35" s="1">
-        <v>11.1104</v>
+        <v>11.1165</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.8804</v>
@@ -4740,10 +4743,10 @@
         <v>473409.2504</v>
       </c>
       <c r="K36" s="1">
-        <v>283206.8062</v>
+        <v>283369.8488</v>
       </c>
       <c r="L36" s="1">
-        <v>11.1</v>
+        <v>11.1064</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6268</v>
@@ -4793,10 +4796,10 @@
         <v>513713.7463</v>
       </c>
       <c r="K37" s="1">
-        <v>279757.3268</v>
+        <v>279934.1592</v>
       </c>
       <c r="L37" s="1">
-        <v>11.0725</v>
+        <v>11.0795</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3636</v>
@@ -4846,10 +4849,10 @@
         <v>541847.4121</v>
       </c>
       <c r="K38" s="1">
-        <v>270898.7866</v>
+        <v>271110.978</v>
       </c>
       <c r="L38" s="1">
-        <v>10.9846</v>
+        <v>10.9932</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.7888</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-23</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.244199999999999</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-22</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9413</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-21</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9801</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-20</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.6477</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-19</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.568899999999999</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-18</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.429399999999999</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-17</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.603999999999999</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.3595</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.0875</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.1692</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0872</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0976</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>10.8505</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-10</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>11.8576</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-9</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.5699</v>
@@ -5773,10 +5776,10 @@
         <v>201327.2618</v>
       </c>
       <c r="K17" s="1">
-        <v>123570.7204</v>
+        <v>123581.5664</v>
       </c>
       <c r="L17" s="1">
-        <v>9.4122</v>
+        <v>9.413</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-8</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.5994</v>
@@ -5826,10 +5829,10 @@
         <v>224928.2751</v>
       </c>
       <c r="K18" s="1">
-        <v>125020.0377</v>
+        <v>125030.8837</v>
       </c>
       <c r="L18" s="1">
-        <v>9.4398</v>
+        <v>9.4406</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-7</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.6663</v>
@@ -5879,10 +5882,10 @@
         <v>254772.3654</v>
       </c>
       <c r="K19" s="1">
-        <v>122232.8208</v>
+        <v>122254.7938</v>
       </c>
       <c r="L19" s="1">
-        <v>9.3741</v>
+        <v>9.3758</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-6</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.701</v>
@@ -5932,10 +5935,10 @@
         <v>265216.4375</v>
       </c>
       <c r="K20" s="1">
-        <v>119221.3297</v>
+        <v>119255.3317</v>
       </c>
       <c r="L20" s="1">
-        <v>9.289199999999999</v>
+        <v>9.2918</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-5</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8109</v>
@@ -5985,10 +5988,10 @@
         <v>263138.0211</v>
       </c>
       <c r="K21" s="1">
-        <v>129758.6807</v>
+        <v>129792.6827</v>
       </c>
       <c r="L21" s="1">
-        <v>9.5764</v>
+        <v>9.578900000000001</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.9322</v>
@@ -6038,10 +6041,10 @@
         <v>287082.1385</v>
       </c>
       <c r="K22" s="1">
-        <v>152881.349</v>
+        <v>152915.351</v>
       </c>
       <c r="L22" s="1">
-        <v>10.0443</v>
+        <v>10.0466</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.5846</v>
@@ -6091,10 +6094,10 @@
         <v>275684.3242</v>
       </c>
       <c r="K23" s="1">
-        <v>162125.5529</v>
+        <v>162159.5549</v>
       </c>
       <c r="L23" s="1">
-        <v>10.2076</v>
+        <v>10.2097</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.2867</v>
@@ -6144,10 +6147,10 @@
         <v>280063.5714</v>
       </c>
       <c r="K24" s="1">
-        <v>194720.8977</v>
+        <v>194754.8997</v>
       </c>
       <c r="L24" s="1">
-        <v>10.5438</v>
+        <v>10.5457</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.0645</v>
@@ -6197,10 +6200,10 @@
         <v>313697.9161</v>
       </c>
       <c r="K25" s="1">
-        <v>211437.8987</v>
+        <v>211471.9007</v>
       </c>
       <c r="L25" s="1">
-        <v>10.6649</v>
+        <v>10.6666</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8083</v>
@@ -6250,10 +6253,10 @@
         <v>338176.7942</v>
       </c>
       <c r="K26" s="1">
-        <v>207246.0238</v>
+        <v>207296.7732</v>
       </c>
       <c r="L26" s="1">
-        <v>10.625</v>
+        <v>10.6276</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.5636</v>
@@ -6303,10 +6306,10 @@
         <v>343470.4034</v>
       </c>
       <c r="K27" s="1">
-        <v>204025.8732</v>
+        <v>204089.4929</v>
       </c>
       <c r="L27" s="1">
-        <v>10.5863</v>
+        <v>10.5896</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.1788</v>
@@ -6356,10 +6359,10 @@
         <v>354221.1771</v>
       </c>
       <c r="K28" s="1">
-        <v>220124.5395</v>
+        <v>220188.1592</v>
       </c>
       <c r="L28" s="1">
-        <v>10.7602</v>
+        <v>10.7633</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.5668</v>
@@ -6409,10 +6412,10 @@
         <v>394510.0315</v>
       </c>
       <c r="K29" s="1">
-        <v>239443.9991</v>
+        <v>239507.6189</v>
       </c>
       <c r="L29" s="1">
-        <v>10.9234</v>
+        <v>10.9263</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.962</v>
@@ -6462,10 +6465,10 @@
         <v>392064.7194</v>
       </c>
       <c r="K30" s="1">
-        <v>220443.5232</v>
+        <v>220583.0355</v>
       </c>
       <c r="L30" s="1">
-        <v>10.6916</v>
+        <v>10.6983</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.2659</v>
@@ -6515,10 +6518,10 @@
         <v>373437.3849</v>
       </c>
       <c r="K31" s="1">
-        <v>244483.6188</v>
+        <v>244623.1311</v>
       </c>
       <c r="L31" s="1">
-        <v>10.9453</v>
+        <v>10.9515</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.4103</v>
@@ -6568,10 +6571,10 @@
         <v>387039.2313</v>
       </c>
       <c r="K32" s="1">
-        <v>294047.4351</v>
+        <v>294186.9475</v>
       </c>
       <c r="L32" s="1">
-        <v>11.151</v>
+        <v>11.1563</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.3976</v>
@@ -6621,10 +6624,10 @@
         <v>396664.9692</v>
       </c>
       <c r="K33" s="1">
-        <v>301892.9406</v>
+        <v>302032.4529</v>
       </c>
       <c r="L33" s="1">
-        <v>11.181</v>
+        <v>11.1862</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9013</v>
@@ -6674,10 +6677,10 @@
         <v>432828.3014</v>
       </c>
       <c r="K34" s="1">
-        <v>313956.0828</v>
+        <v>314095.5951</v>
       </c>
       <c r="L34" s="1">
-        <v>11.2241</v>
+        <v>11.2291</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.3527</v>
@@ -6727,10 +6730,10 @@
         <v>455347.9246</v>
       </c>
       <c r="K35" s="1">
-        <v>311615.8629</v>
+        <v>311764.7345</v>
       </c>
       <c r="L35" s="1">
-        <v>11.213</v>
+        <v>11.2184</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.8804</v>
@@ -6780,10 +6783,10 @@
         <v>479953.5369</v>
       </c>
       <c r="K36" s="1">
-        <v>310882.3901</v>
+        <v>311034.1946</v>
       </c>
       <c r="L36" s="1">
-        <v>11.2088</v>
+        <v>11.2142</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6268</v>
@@ -6833,10 +6836,10 @@
         <v>522949.3774</v>
       </c>
       <c r="K37" s="1">
-        <v>308113.7385</v>
+        <v>308276.6111</v>
       </c>
       <c r="L37" s="1">
-        <v>11.1892</v>
+        <v>11.1952</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3636</v>
@@ -6886,10 +6889,10 @@
         <v>552763.4825</v>
       </c>
       <c r="K38" s="1">
-        <v>299471.7309</v>
+        <v>299669.0982</v>
       </c>
       <c r="L38" s="1">
-        <v>11.1134</v>
+        <v>11.1207</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.7888</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-23</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.244199999999999</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-22</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9413</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-21</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9801</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-20</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.6477</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-19</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.568899999999999</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-18</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.429399999999999</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-17</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.603999999999999</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.3595</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.0875</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.1692</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0872</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0976</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>10.8505</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-10</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>11.8576</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-9</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.5699</v>
@@ -7813,10 +7816,10 @@
         <v>202618.869</v>
       </c>
       <c r="K17" s="1">
-        <v>128465.9647</v>
+        <v>128475.514</v>
       </c>
       <c r="L17" s="1">
-        <v>9.4444</v>
+        <v>9.4451</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-8</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.5994</v>
@@ -7866,10 +7869,10 @@
         <v>226745.0192</v>
       </c>
       <c r="K18" s="1">
-        <v>130413.5151</v>
+        <v>130423.0643</v>
       </c>
       <c r="L18" s="1">
-        <v>9.479799999999999</v>
+        <v>9.480499999999999</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-7</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.6663</v>
@@ -7919,10 +7922,10 @@
         <v>257395.1729</v>
       </c>
       <c r="K19" s="1">
-        <v>127995.7212</v>
+        <v>128014.9228</v>
       </c>
       <c r="L19" s="1">
-        <v>9.425599999999999</v>
+        <v>9.427</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-6</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.701</v>
@@ -7972,10 +7975,10 @@
         <v>267858.8405</v>
       </c>
       <c r="K20" s="1">
-        <v>125368.7628</v>
+        <v>125398.4573</v>
       </c>
       <c r="L20" s="1">
-        <v>9.3553</v>
+        <v>9.3575</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-5</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8109</v>
@@ -8025,10 +8028,10 @@
         <v>265212.6124</v>
       </c>
       <c r="K21" s="1">
-        <v>136912.7285</v>
+        <v>136942.4231</v>
       </c>
       <c r="L21" s="1">
-        <v>9.6523</v>
+        <v>9.654400000000001</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.9322</v>
@@ -8078,10 +8081,10 @@
         <v>289812.608</v>
       </c>
       <c r="K22" s="1">
-        <v>161692.9109</v>
+        <v>161722.6055</v>
       </c>
       <c r="L22" s="1">
-        <v>10.1215</v>
+        <v>10.1234</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.5846</v>
@@ -8131,10 +8134,10 @@
         <v>277293.1769</v>
       </c>
       <c r="K23" s="1">
-        <v>172003.031</v>
+        <v>172032.7256</v>
       </c>
       <c r="L23" s="1">
-        <v>10.2912</v>
+        <v>10.2929</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.2867</v>
@@ -8184,10 +8187,10 @@
         <v>281360.7237</v>
       </c>
       <c r="K24" s="1">
-        <v>206944.8294</v>
+        <v>206974.524</v>
       </c>
       <c r="L24" s="1">
-        <v>10.6209</v>
+        <v>10.6224</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.0645</v>
@@ -8237,10 +8240,10 @@
         <v>316336.3497</v>
       </c>
       <c r="K25" s="1">
-        <v>225257.968</v>
+        <v>225287.6625</v>
       </c>
       <c r="L25" s="1">
-        <v>10.7408</v>
+        <v>10.7422</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8083</v>
@@ -8290,10 +8293,10 @@
         <v>341692.8375</v>
       </c>
       <c r="K26" s="1">
-        <v>221534.0137</v>
+        <v>221578.5862</v>
       </c>
       <c r="L26" s="1">
-        <v>10.7085</v>
+        <v>10.7106</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.5636</v>
@@ -8343,10 +8346,10 @@
         <v>346688.0196</v>
       </c>
       <c r="K27" s="1">
-        <v>218864.2017</v>
+        <v>218919.445</v>
       </c>
       <c r="L27" s="1">
-        <v>10.679</v>
+        <v>10.6817</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.1788</v>
@@ -8396,10 +8399,10 @@
         <v>357461.2001</v>
       </c>
       <c r="K28" s="1">
-        <v>236764.8589</v>
+        <v>236820.1022</v>
       </c>
       <c r="L28" s="1">
-        <v>10.8549</v>
+        <v>10.8574</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.5668</v>
@@ -8449,10 +8452,10 @@
         <v>399838.2194</v>
       </c>
       <c r="K29" s="1">
-        <v>258180.9903</v>
+        <v>258236.2336</v>
       </c>
       <c r="L29" s="1">
-        <v>11.0175</v>
+        <v>11.0199</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.962</v>
@@ -8502,10 +8505,10 @@
         <v>396498.3356</v>
       </c>
       <c r="K30" s="1">
-        <v>238722.7078</v>
+        <v>238855.6723</v>
       </c>
       <c r="L30" s="1">
-        <v>10.8017</v>
+        <v>10.8077</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.2659</v>
@@ -8555,10 +8558,10 @@
         <v>375701.8704</v>
       </c>
       <c r="K31" s="1">
-        <v>265382.0242</v>
+        <v>265514.9886</v>
       </c>
       <c r="L31" s="1">
-        <v>11.0548</v>
+        <v>11.0603</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.4103</v>
@@ -8608,10 +8611,10 @@
         <v>389580.0706</v>
       </c>
       <c r="K32" s="1">
-        <v>319578.7601</v>
+        <v>319711.7245</v>
       </c>
       <c r="L32" s="1">
-        <v>11.2465</v>
+        <v>11.2512</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.3976</v>
@@ -8661,10 +8664,10 @@
         <v>399171.9134</v>
       </c>
       <c r="K33" s="1">
-        <v>329000.1903</v>
+        <v>329133.1547</v>
       </c>
       <c r="L33" s="1">
-        <v>11.2774</v>
+        <v>11.282</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9013</v>
@@ -8714,10 +8717,10 @@
         <v>437477.5265</v>
       </c>
       <c r="K34" s="1">
-        <v>343040.0249</v>
+        <v>343172.9893</v>
       </c>
       <c r="L34" s="1">
-        <v>11.3201</v>
+        <v>11.3245</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.3527</v>
@@ -8767,10 +8770,10 @@
         <v>461077.3776</v>
       </c>
       <c r="K35" s="1">
-        <v>341549.8402</v>
+        <v>341688.7643</v>
       </c>
       <c r="L35" s="1">
-        <v>11.314</v>
+        <v>11.3186</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.8804</v>
@@ -8820,10 +8823,10 @@
         <v>486984.753</v>
       </c>
       <c r="K36" s="1">
-        <v>341838.0423</v>
+        <v>341976.9665</v>
       </c>
       <c r="L36" s="1">
-        <v>11.3154</v>
+        <v>11.32</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6268</v>
@@ -8873,10 +8876,10 @@
         <v>532984.3151</v>
       </c>
       <c r="K37" s="1">
-        <v>339947.7276</v>
+        <v>340094.2086</v>
       </c>
       <c r="L37" s="1">
-        <v>11.3037</v>
+        <v>11.3086</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3636</v>
@@ -8926,10 +8929,10 @@
         <v>564682.6960999999</v>
       </c>
       <c r="K38" s="1">
-        <v>331675.625</v>
+        <v>331855.1242</v>
       </c>
       <c r="L38" s="1">
-        <v>11.2396</v>
+        <v>11.2457</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.7888</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-23</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.244199999999999</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-22</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9413</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-21</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9801</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-20</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.6477</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-19</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.568899999999999</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-18</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.429399999999999</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-17</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.603999999999999</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.3595</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.0875</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.1692</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0872</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0976</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>10.8505</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-10</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>11.8576</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-9</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.5699</v>
@@ -9853,10 +9856,10 @@
         <v>203934.4573</v>
       </c>
       <c r="K17" s="1">
-        <v>133609.3168</v>
+        <v>133617.4372</v>
       </c>
       <c r="L17" s="1">
-        <v>9.4779</v>
+        <v>9.4785</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-8</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.5994</v>
@@ -9906,10 +9909,10 @@
         <v>228610.8476</v>
       </c>
       <c r="K18" s="1">
-        <v>136100.0941</v>
+        <v>136108.2145</v>
       </c>
       <c r="L18" s="1">
-        <v>9.521000000000001</v>
+        <v>9.521599999999999</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-7</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.6663</v>
@@ -9959,10 +9962,10 @@
         <v>260107.7714</v>
       </c>
       <c r="K19" s="1">
-        <v>134095.6097</v>
+        <v>134111.7324</v>
       </c>
       <c r="L19" s="1">
-        <v>9.478400000000001</v>
+        <v>9.4795</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-6</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.701</v>
@@ -10012,10 +10015,10 @@
         <v>270592.1141</v>
       </c>
       <c r="K20" s="1">
-        <v>131902.7288</v>
+        <v>131927.6106</v>
       </c>
       <c r="L20" s="1">
-        <v>9.422700000000001</v>
+        <v>9.4245</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-5</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8109</v>
@@ -10065,10 +10068,10 @@
         <v>267344.6341</v>
       </c>
       <c r="K21" s="1">
-        <v>144542.332</v>
+        <v>144567.2138</v>
       </c>
       <c r="L21" s="1">
-        <v>9.7293</v>
+        <v>9.731</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.9322</v>
@@ -10118,10 +10121,10 @@
         <v>292639.1748</v>
       </c>
       <c r="K22" s="1">
-        <v>171114.966</v>
+        <v>171139.8478</v>
       </c>
       <c r="L22" s="1">
-        <v>10.1996</v>
+        <v>10.2011</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.5846</v>
@@ -10171,10 +10174,10 @@
         <v>278924.0418</v>
       </c>
       <c r="K23" s="1">
-        <v>182599.4542</v>
+        <v>182624.3361</v>
       </c>
       <c r="L23" s="1">
-        <v>10.3754</v>
+        <v>10.3768</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.2867</v>
@@ -10224,10 +10227,10 @@
         <v>282658.0536</v>
       </c>
       <c r="K24" s="1">
-        <v>220089.103</v>
+        <v>220113.9848</v>
       </c>
       <c r="L24" s="1">
-        <v>10.6983</v>
+        <v>10.6995</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.0645</v>
@@ -10277,10 +10280,10 @@
         <v>319071.3139</v>
       </c>
       <c r="K25" s="1">
-        <v>240161.1003</v>
+        <v>240185.9822</v>
       </c>
       <c r="L25" s="1">
-        <v>10.8168</v>
+        <v>10.8179</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8083</v>
@@ -10330,10 +10333,10 @@
         <v>345372.9019</v>
       </c>
       <c r="K26" s="1">
-        <v>236996.2903</v>
+        <v>237033.8162</v>
       </c>
       <c r="L26" s="1">
-        <v>10.7917</v>
+        <v>10.7934</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.5636</v>
@@ -10383,10 +10386,10 @@
         <v>350045.6033</v>
       </c>
       <c r="K27" s="1">
-        <v>234981.6784</v>
+        <v>235027.2563</v>
       </c>
       <c r="L27" s="1">
-        <v>10.7714</v>
+        <v>10.7735</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.1788</v>
@@ -10436,10 +10439,10 @@
         <v>360840.789</v>
       </c>
       <c r="K28" s="1">
-        <v>254898.0032</v>
+        <v>254943.5811</v>
       </c>
       <c r="L28" s="1">
-        <v>10.9489</v>
+        <v>10.9508</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.5668</v>
@@ -10489,10 +10492,10 @@
         <v>405489.5772</v>
       </c>
       <c r="K29" s="1">
-        <v>278662.249</v>
+        <v>278707.8269</v>
       </c>
       <c r="L29" s="1">
-        <v>11.1108</v>
+        <v>11.1126</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.962</v>
@@ -10542,10 +10545,10 @@
         <v>401172.9931</v>
       </c>
       <c r="K30" s="1">
-        <v>258787.0566</v>
+        <v>258912.0209</v>
       </c>
       <c r="L30" s="1">
-        <v>10.9107</v>
+        <v>10.916</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.2659</v>
@@ -10595,10 +10598,10 @@
         <v>377997.2413</v>
       </c>
       <c r="K31" s="1">
-        <v>288394.164</v>
+        <v>288519.1283</v>
       </c>
       <c r="L31" s="1">
-        <v>11.1629</v>
+        <v>11.1678</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.4103</v>
@@ -10648,10 +10651,10 @@
         <v>392178.9464</v>
       </c>
       <c r="K32" s="1">
-        <v>347761.9889</v>
+        <v>347886.9533</v>
       </c>
       <c r="L32" s="1">
-        <v>11.3406</v>
+        <v>11.3446</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.3976</v>
@@ -10701,10 +10704,10 @@
         <v>401733.0091</v>
       </c>
       <c r="K33" s="1">
-        <v>359018.905</v>
+        <v>359143.8693</v>
       </c>
       <c r="L33" s="1">
-        <v>11.3719</v>
+        <v>11.3759</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9013</v>
@@ -10754,10 +10757,10 @@
         <v>442405.9951</v>
       </c>
       <c r="K34" s="1">
-        <v>375350.3236</v>
+        <v>375475.288</v>
       </c>
       <c r="L34" s="1">
-        <v>11.4139</v>
+        <v>11.4177</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.3527</v>
@@ -10807,10 +10810,10 @@
         <v>467205.828</v>
       </c>
       <c r="K35" s="1">
-        <v>374920.4218</v>
+        <v>375047.1055</v>
       </c>
       <c r="L35" s="1">
-        <v>11.4124</v>
+        <v>11.4163</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.8804</v>
@@ -10860,10 +10863,10 @@
         <v>494560.5484</v>
       </c>
       <c r="K36" s="1">
-        <v>376471.5833</v>
+        <v>376598.267</v>
       </c>
       <c r="L36" s="1">
-        <v>11.4193</v>
+        <v>11.4232</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6268</v>
@@ -10913,10 +10916,10 @@
         <v>543915.7873</v>
       </c>
       <c r="K37" s="1">
-        <v>375697.5297</v>
+        <v>375827.3077</v>
       </c>
       <c r="L37" s="1">
-        <v>11.4151</v>
+        <v>11.4191</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3636</v>
@@ -10966,10 +10969,10 @@
         <v>577729.3047</v>
       </c>
       <c r="K38" s="1">
-        <v>367985.9009</v>
+        <v>368146.46</v>
       </c>
       <c r="L38" s="1">
-        <v>11.3625</v>
+        <v>11.3674</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>11.9205</v>
       </c>
       <c r="D3" s="1">
-        <v>10.9846</v>
+        <v>10.9932</v>
       </c>
       <c r="E3" s="1">
-        <v>11.1134</v>
+        <v>11.1207</v>
       </c>
       <c r="F3" s="1">
-        <v>11.2396</v>
+        <v>11.2457</v>
       </c>
       <c r="G3" s="1">
-        <v>11.3625</v>
+        <v>11.3674</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>89302.5552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.2863</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.9986</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.8446</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.7016</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.5693</v>
       </c>
     </row>
   </sheetData>
